--- a/BOM_v04_2.xlsx
+++ b/BOM_v04_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="9" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="480">
   <si>
     <t>Value</t>
   </si>
@@ -1506,6 +1506,18 @@
   </si>
   <si>
     <t>ADM7151ARDZ-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">873-SKY13343-92LF </t>
+  </si>
+  <si>
+    <t>LP3876ESXADJNOPB</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>ADM7151_ARDZ-07-R7 (slight PCB mod required)</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
@@ -5996,10 +6008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6009,9 +6021,10 @@
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -6021,8 +6034,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>7</v>
       </c>
@@ -6033,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>7</v>
       </c>
@@ -6044,7 +6060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6055,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6066,7 +6082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>9</v>
       </c>
@@ -6077,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6088,7 +6104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>17</v>
       </c>
@@ -6109,7 +6125,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6120,7 +6136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6131,7 +6147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>6</v>
       </c>
@@ -6145,7 +6161,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6159,7 +6175,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6170,7 +6186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6192,7 +6208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>63</v>
       </c>
@@ -6639,7 +6655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>1</v>
       </c>
@@ -6650,7 +6666,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>2</v>
       </c>
@@ -6661,7 +6677,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6672,7 +6688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>2</v>
       </c>
@@ -6683,7 +6699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>2</v>
       </c>
@@ -6694,7 +6710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6705,7 +6721,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>2</v>
       </c>
@@ -6716,7 +6732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>2</v>
       </c>
@@ -6727,7 +6743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>1</v>
       </c>
@@ -6738,7 +6754,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>23</v>
       </c>
@@ -6749,11 +6765,11 @@
         <v>0.05</v>
       </c>
       <c r="F58">
-        <f>A58*E58</f>
+        <f t="shared" ref="F58:F70" si="0">A58*E58</f>
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>2</v>
       </c>
@@ -6770,11 +6786,11 @@
         <v>2.71</v>
       </c>
       <c r="F59">
-        <f>A59*E59</f>
+        <f t="shared" si="0"/>
         <v>5.42</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6791,11 +6807,11 @@
         <v>14.99</v>
       </c>
       <c r="F60">
-        <f>A60*E60</f>
+        <f t="shared" si="0"/>
         <v>14.99</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>1</v>
       </c>
@@ -6812,11 +6828,11 @@
         <v>0.26</v>
       </c>
       <c r="F61">
-        <f>A61*E61</f>
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2</v>
       </c>
@@ -6833,11 +6849,14 @@
         <v>1.44</v>
       </c>
       <c r="F62">
-        <f>A62*E62</f>
+        <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>1</v>
       </c>
@@ -6854,11 +6873,11 @@
         <v>3.21</v>
       </c>
       <c r="F63">
-        <f>A63*E63</f>
+        <f t="shared" si="0"/>
         <v>3.21</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>1</v>
       </c>
@@ -6875,11 +6894,11 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="F64">
-        <f>A64*E64</f>
+        <f t="shared" si="0"/>
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2</v>
       </c>
@@ -6896,11 +6915,14 @@
         <v>2.11</v>
       </c>
       <c r="F65">
-        <f>A65*E65</f>
+        <f t="shared" si="0"/>
         <v>4.22</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2</v>
       </c>
@@ -6917,11 +6939,11 @@
         <v>0.86</v>
       </c>
       <c r="F66">
-        <f>A66*E66</f>
+        <f t="shared" si="0"/>
         <v>1.72</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>1</v>
       </c>
@@ -6938,11 +6960,11 @@
         <v>0.95</v>
       </c>
       <c r="F67">
-        <f>A67*E67</f>
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>1</v>
       </c>
@@ -6959,11 +6981,11 @@
         <v>1.18</v>
       </c>
       <c r="F68">
-        <f>A68*E68</f>
+        <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>1</v>
       </c>
@@ -6980,11 +7002,14 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="F69">
-        <f>A69*E69</f>
+        <f t="shared" si="0"/>
         <v>8.0399999999999991</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2</v>
       </c>
@@ -7001,11 +7026,11 @@
         <v>16.78</v>
       </c>
       <c r="F70">
-        <f>A70*E70</f>
+        <f t="shared" si="0"/>
         <v>33.56</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="F72">
         <f>SUM(F2:F71)</f>
         <v>96.09</v>

--- a/BOM_v04_2.xlsx
+++ b/BOM_v04_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="9" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="479">
   <si>
     <t>Value</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>3n9</t>
-  </si>
-  <si>
-    <t>EMG1</t>
   </si>
   <si>
     <t>Package_TO_SOT_SMD:SOT-23-5_HandSoldering</t>
@@ -1864,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1881,15 +1878,15 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" t="s">
         <v>459</v>
-      </c>
-      <c r="B1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="1">
         <v>44648.862546296295</v>
@@ -1898,15 +1895,15 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" t="s">
         <v>462</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1914,33 +1911,33 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" t="s">
         <v>466</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>467</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>468</v>
-      </c>
-      <c r="G5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1951,7 +1948,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1965,10 +1962,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -2007,7 +2004,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -2021,7 +2018,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2049,7 +2046,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2105,7 +2102,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2147,7 +2144,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2161,7 +2158,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -2231,7 +2228,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -2259,10 +2256,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -2273,7 +2270,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2287,7 +2284,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -2315,7 +2312,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -2329,7 +2326,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -2371,7 +2368,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -2385,7 +2382,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -2399,7 +2396,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2427,7 +2424,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -2441,7 +2438,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -2483,7 +2480,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -2497,7 +2494,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -2511,7 +2508,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
@@ -2525,7 +2522,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -2539,7 +2536,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2595,7 +2592,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
@@ -2609,7 +2606,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2637,7 +2634,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2651,7 +2648,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2665,7 +2662,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2679,7 +2676,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2707,7 +2704,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2721,7 +2718,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2763,7 +2760,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2777,7 +2774,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2791,7 +2788,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2819,7 +2816,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -2875,7 +2872,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -2889,7 +2886,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -2931,7 +2928,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -2945,7 +2942,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3001,7 +2998,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -3043,7 +3040,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -3071,10 +3068,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -3085,7 +3082,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
@@ -3116,7 +3113,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -3127,7 +3124,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -3141,7 +3138,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B92" t="s">
         <v>19</v>
@@ -3169,7 +3166,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s">
         <v>19</v>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B95" t="s">
         <v>19</v>
@@ -3197,7 +3194,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -3211,7 +3208,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B97" t="s">
         <v>29</v>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
         <v>31</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
@@ -3309,7 +3306,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B104" t="s">
         <v>42</v>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s">
         <v>44</v>
@@ -3337,7 +3334,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
         <v>44</v>
@@ -3351,7 +3348,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B107" t="s">
         <v>44</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B108" t="s">
         <v>44</v>
@@ -3379,7 +3376,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
         <v>44</v>
@@ -3393,7 +3390,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s">
         <v>44</v>
@@ -3407,7 +3404,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s">
         <v>44</v>
@@ -3421,7 +3418,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B112" t="s">
         <v>44</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s">
         <v>44</v>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B114" t="s">
         <v>44</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B115" t="s">
         <v>44</v>
@@ -3477,7 +3474,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B116" t="s">
         <v>44</v>
@@ -3491,7 +3488,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B117" t="s">
         <v>44</v>
@@ -3508,7 +3505,7 @@
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
         <v>48</v>
@@ -3519,10 +3516,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3533,10 +3530,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D120" t="s">
         <v>50</v>
@@ -3547,10 +3544,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B122" t="s">
         <v>51</v>
@@ -3575,7 +3572,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B123" t="s">
         <v>51</v>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B124" t="s">
         <v>53</v>
@@ -3603,7 +3600,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B125" t="s">
         <v>53</v>
@@ -3617,46 +3614,46 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" t="s">
+        <v>469</v>
+      </c>
+      <c r="D126" t="s">
         <v>54</v>
-      </c>
-      <c r="D126" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B127" t="s">
+        <v>469</v>
+      </c>
+      <c r="D127" t="s">
         <v>54</v>
-      </c>
-      <c r="D127" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" t="s">
         <v>56</v>
-      </c>
-      <c r="B128" t="s">
-        <v>57</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D129" t="s">
         <v>23</v>
@@ -3667,13 +3664,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E130" t="s">
         <v>3</v>
@@ -3681,13 +3678,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
         <v>3</v>
@@ -3695,13 +3692,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E132" t="s">
         <v>3</v>
@@ -3709,13 +3706,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133" t="s">
         <v>3</v>
@@ -3723,13 +3720,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E134" t="s">
         <v>3</v>
@@ -3737,10 +3734,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
@@ -3751,10 +3748,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
@@ -3765,13 +3762,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B137" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E137" t="s">
         <v>3</v>
@@ -3779,10 +3776,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D138" t="s">
         <v>23</v>
@@ -3793,10 +3790,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -3807,13 +3804,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E140" t="s">
         <v>3</v>
@@ -3821,10 +3818,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -3835,10 +3832,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D142" t="s">
         <v>23</v>
@@ -3849,10 +3846,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
         <v>23</v>
@@ -3863,10 +3860,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D144" t="s">
         <v>23</v>
@@ -3877,10 +3874,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -3891,10 +3888,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D146" t="s">
         <v>23</v>
@@ -3905,10 +3902,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D147" t="s">
         <v>23</v>
@@ -3919,10 +3916,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -3933,13 +3930,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E149" t="s">
         <v>3</v>
@@ -3947,13 +3944,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E150" t="s">
         <v>3</v>
@@ -3961,13 +3958,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E151" t="s">
         <v>3</v>
@@ -3975,13 +3972,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E152" t="s">
         <v>3</v>
@@ -3989,13 +3986,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B153" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E153" t="s">
         <v>3</v>
@@ -4003,10 +4000,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
         <v>23</v>
@@ -4017,10 +4014,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
@@ -4031,10 +4028,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -4045,10 +4042,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B157" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -4059,10 +4056,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
@@ -4073,10 +4070,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
@@ -4087,10 +4084,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -4101,10 +4098,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -4115,10 +4112,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B162" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -4129,10 +4126,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B163" t="s">
         <v>74</v>
-      </c>
-      <c r="B163" t="s">
-        <v>75</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -4143,10 +4140,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -4157,10 +4154,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
+        <v>76</v>
+      </c>
+      <c r="B165" t="s">
         <v>77</v>
-      </c>
-      <c r="B165" t="s">
-        <v>78</v>
       </c>
       <c r="D165" t="s">
         <v>23</v>
@@ -4171,10 +4168,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D166" t="s">
         <v>23</v>
@@ -4185,10 +4182,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D167" t="s">
         <v>23</v>
@@ -4199,10 +4196,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D168" t="s">
         <v>23</v>
@@ -4213,10 +4210,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
@@ -4227,10 +4224,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D170" t="s">
         <v>23</v>
@@ -4241,10 +4238,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D171" t="s">
         <v>23</v>
@@ -4255,10 +4252,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D172" t="s">
         <v>23</v>
@@ -4269,10 +4266,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -4283,10 +4280,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
@@ -4297,10 +4294,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D175" t="s">
         <v>23</v>
@@ -4311,10 +4308,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B176" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D176" t="s">
         <v>23</v>
@@ -4325,10 +4322,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D177" t="s">
         <v>23</v>
@@ -4339,10 +4336,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
+        <v>81</v>
+      </c>
+      <c r="B178" t="s">
         <v>82</v>
-      </c>
-      <c r="B178" t="s">
-        <v>83</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
@@ -4353,10 +4350,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D179" t="s">
         <v>23</v>
@@ -4367,10 +4364,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B180" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D180" t="s">
         <v>23</v>
@@ -4381,10 +4378,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B181" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
@@ -4395,10 +4392,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B182" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D182" t="s">
         <v>23</v>
@@ -4409,10 +4406,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
@@ -4423,10 +4420,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B184" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D184" t="s">
         <v>23</v>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
@@ -4451,10 +4448,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B186" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D186" t="s">
         <v>23</v>
@@ -4465,10 +4462,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B187" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
@@ -4479,13 +4476,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
+        <v>84</v>
+      </c>
+      <c r="B188" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" t="s">
         <v>85</v>
-      </c>
-      <c r="B188" t="s">
-        <v>65</v>
-      </c>
-      <c r="D188" t="s">
-        <v>86</v>
       </c>
       <c r="E188" t="s">
         <v>3</v>
@@ -4493,175 +4490,175 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B189" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" t="s">
         <v>87</v>
-      </c>
-      <c r="D189" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
+        <v>88</v>
+      </c>
+      <c r="B190" t="s">
         <v>89</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>90</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>91</v>
-      </c>
-      <c r="E190" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
+        <v>92</v>
+      </c>
+      <c r="B191" t="s">
         <v>93</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D191" t="s">
         <v>94</v>
-      </c>
-      <c r="D191" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B192" t="s">
+        <v>95</v>
+      </c>
+      <c r="C192" t="s">
+        <v>473</v>
+      </c>
+      <c r="D192" t="s">
         <v>96</v>
       </c>
-      <c r="C192" t="s">
-        <v>474</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>97</v>
-      </c>
-      <c r="E192" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B193" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" t="s">
         <v>87</v>
-      </c>
-      <c r="D193" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D194" t="s">
+        <v>100</v>
+      </c>
+      <c r="E194" t="s">
         <v>101</v>
-      </c>
-      <c r="E194" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B195" t="s">
+        <v>95</v>
+      </c>
+      <c r="C195" t="s">
+        <v>473</v>
+      </c>
+      <c r="D195" t="s">
         <v>96</v>
       </c>
-      <c r="C195" t="s">
-        <v>474</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>97</v>
-      </c>
-      <c r="E195" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
+        <v>102</v>
+      </c>
+      <c r="B196" t="s">
         <v>103</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" t="s">
         <v>104</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>105</v>
-      </c>
-      <c r="E196" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
+        <v>106</v>
+      </c>
+      <c r="C197" t="s">
+        <v>472</v>
+      </c>
+      <c r="D197" t="s">
         <v>107</v>
-      </c>
-      <c r="C197" t="s">
-        <v>473</v>
-      </c>
-      <c r="D197" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
+        <v>106</v>
+      </c>
+      <c r="C198" t="s">
+        <v>472</v>
+      </c>
+      <c r="D198" t="s">
         <v>107</v>
-      </c>
-      <c r="C198" t="s">
-        <v>473</v>
-      </c>
-      <c r="D198" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B199" t="s">
+        <v>108</v>
+      </c>
+      <c r="D199" t="s">
         <v>109</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>110</v>
-      </c>
-      <c r="E199" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B200" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200" t="s">
         <v>109</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>110</v>
-      </c>
-      <c r="E200" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
+        <v>111</v>
+      </c>
+      <c r="B201" t="s">
         <v>112</v>
-      </c>
-      <c r="B201" t="s">
-        <v>113</v>
       </c>
       <c r="D201" t="s">
         <v>17</v>
@@ -4669,58 +4666,58 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
+        <v>113</v>
+      </c>
+      <c r="B202" t="s">
         <v>114</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>115</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>116</v>
-      </c>
-      <c r="E202" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
+        <v>117</v>
+      </c>
+      <c r="B203" t="s">
         <v>118</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
+        <v>474</v>
+      </c>
+      <c r="D203" t="s">
         <v>119</v>
-      </c>
-      <c r="C203" t="s">
-        <v>475</v>
-      </c>
-      <c r="D203" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B204" t="s">
+        <v>120</v>
+      </c>
+      <c r="D204" t="s">
         <v>121</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>122</v>
-      </c>
-      <c r="E204" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B205" t="s">
+        <v>120</v>
+      </c>
+      <c r="D205" t="s">
         <v>121</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>122</v>
-      </c>
-      <c r="E205" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4746,30 +4743,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>201</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -4780,7 +4777,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -4797,13 +4794,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -4814,13 +4811,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -4831,7 +4828,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7">
         <v>17</v>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4899,7 +4896,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -4933,7 +4930,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -4950,7 +4947,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -4967,7 +4964,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -4984,7 +4981,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -5001,7 +4998,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -5018,7 +5015,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -5052,7 +5049,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5069,13 +5066,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -5086,7 +5083,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5120,7 +5117,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5137,7 +5134,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5171,7 +5168,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5188,7 +5185,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5205,7 +5202,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -5222,7 +5219,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5239,7 +5236,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5256,7 +5253,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5273,7 +5270,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32">
         <v>13</v>
@@ -5290,13 +5287,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
         <v>48</v>
@@ -5307,13 +5304,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>239</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>240</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -5341,7 +5338,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -5358,44 +5355,44 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
@@ -5406,13 +5403,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B40">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
@@ -5423,16 +5420,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
@@ -5440,13 +5437,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
@@ -5457,13 +5454,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
@@ -5474,13 +5471,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -5491,16 +5488,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
@@ -5508,16 +5505,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -5525,13 +5522,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
@@ -5542,13 +5539,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
@@ -5559,13 +5556,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B49">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -5576,13 +5573,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -5593,13 +5590,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -5610,13 +5607,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -5627,13 +5624,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
         <v>23</v>
@@ -5644,13 +5641,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
         <v>23</v>
@@ -5661,13 +5658,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -5678,13 +5675,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -5695,13 +5692,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -5712,13 +5709,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -5729,13 +5726,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
         <v>23</v>
@@ -5746,13 +5743,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -5763,13 +5760,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -5780,16 +5777,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
         <v>3</v>
@@ -5797,16 +5794,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
@@ -5814,106 +5811,106 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
         <v>87</v>
-      </c>
-      <c r="D64" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s">
         <v>90</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>91</v>
-      </c>
-      <c r="E65" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
         <v>94</v>
-      </c>
-      <c r="D66" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
         <v>104</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>105</v>
-      </c>
-      <c r="E67" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
         <v>107</v>
-      </c>
-      <c r="D68" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
         <v>109</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>110</v>
-      </c>
-      <c r="E69" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
@@ -5921,84 +5918,84 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
         <v>96</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>97</v>
-      </c>
-      <c r="E71" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
         <v>115</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>116</v>
-      </c>
-      <c r="E72" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" t="s">
         <v>119</v>
-      </c>
-      <c r="D73" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" t="s">
         <v>121</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>122</v>
-      </c>
-      <c r="E74" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
         <v>101</v>
-      </c>
-      <c r="E75" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6010,7 +6007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -6026,16 +6023,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6043,7 +6040,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -6054,7 +6051,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -6065,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -6076,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -6087,7 +6084,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -6098,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -6109,13 +6106,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>0.15</v>
@@ -6130,7 +6127,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -6141,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -6152,13 +6149,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6166,13 +6163,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6180,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -6191,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -6202,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -6213,7 +6210,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16">
         <v>0.05</v>
@@ -6228,13 +6225,13 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17">
         <v>0.24</v>
@@ -6249,13 +6246,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -6276,7 +6273,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19">
         <v>0.24</v>
@@ -6297,7 +6294,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>0.24</v>
@@ -6312,13 +6309,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" t="s">
         <v>179</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
@@ -6326,13 +6323,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
         <v>182</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>183</v>
-      </c>
-      <c r="D22" t="s">
-        <v>184</v>
       </c>
       <c r="E22">
         <v>0.98</v>
@@ -6402,7 +6399,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -6413,7 +6410,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -6424,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
@@ -6435,13 +6432,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" t="s">
         <v>470</v>
-      </c>
-      <c r="D31" t="s">
-        <v>471</v>
       </c>
       <c r="E31">
         <v>0.4</v>
@@ -6456,10 +6453,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
       </c>
       <c r="E32">
         <v>0.15</v>
@@ -6474,10 +6471,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6485,13 +6482,13 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>0.09</v>
@@ -6506,10 +6503,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6517,10 +6514,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6528,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6539,10 +6536,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6550,10 +6547,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6561,10 +6558,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6572,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6583,10 +6580,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6594,10 +6591,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6605,10 +6602,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6616,10 +6613,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6627,10 +6624,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
         <v>74</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6638,10 +6635,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6649,10 +6646,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
         <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6660,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6671,10 +6668,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6682,10 +6679,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6693,10 +6690,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6704,10 +6701,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6715,10 +6712,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
         <v>82</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6726,10 +6723,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6737,10 +6734,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6748,10 +6745,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6759,7 +6756,7 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E58">
         <v>0.05</v>
@@ -6774,13 +6771,13 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59">
         <v>2.71</v>
@@ -6795,13 +6792,13 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
         <v>89</v>
       </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E60">
         <v>14.99</v>
@@ -6816,13 +6813,13 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
         <v>93</v>
       </c>
-      <c r="C61" t="s">
-        <v>94</v>
-      </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E61">
         <v>0.26</v>
@@ -6837,13 +6834,13 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>1.44</v>
@@ -6853,7 +6850,7 @@
         <v>2.88</v>
       </c>
       <c r="G62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6861,13 +6858,13 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
         <v>99</v>
       </c>
-      <c r="C63" t="s">
-        <v>100</v>
-      </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63">
         <v>3.21</v>
@@ -6882,13 +6879,13 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
         <v>103</v>
       </c>
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E64">
         <v>4.0599999999999996</v>
@@ -6903,13 +6900,13 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E65">
         <v>2.11</v>
@@ -6919,7 +6916,7 @@
         <v>4.22</v>
       </c>
       <c r="G65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6927,13 +6924,13 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66">
         <v>0.86</v>
@@ -6948,13 +6945,13 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" t="s">
         <v>112</v>
       </c>
-      <c r="C67" t="s">
-        <v>113</v>
-      </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E67">
         <v>0.95</v>
@@ -6969,13 +6966,13 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
         <v>114</v>
       </c>
-      <c r="C68" t="s">
-        <v>115</v>
-      </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E68">
         <v>1.18</v>
@@ -6990,13 +6987,13 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
         <v>118</v>
       </c>
-      <c r="C69" t="s">
-        <v>119</v>
-      </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E69">
         <v>8.0399999999999991</v>
@@ -7006,7 +7003,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7014,13 +7011,13 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E70">
         <v>16.78</v>
